--- a/cours6/ISI TP Test+Cases 052025.xlsx
+++ b/cours6/ISI TP Test+Cases 052025.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29009"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDB2295-9BE6-3A41-9137-A016D9779299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17446CFE-FFA5-4780-B7EF-F30E3FE52BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="500" windowWidth="38400" windowHeight="19800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13872" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CRM Tests" sheetId="1" r:id="rId1"/>
@@ -719,26 +719,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C104" sqref="C104"/>
+    <sheetView tabSelected="1" zoomScale="124" zoomScaleNormal="187" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="10.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="43.5" customWidth="1"/>
-    <col min="4" max="4" width="46.5" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="46.44140625" customWidth="1"/>
     <col min="5" max="5" width="19.6640625" style="9" customWidth="1"/>
     <col min="6" max="6" width="96.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>66</v>
       </c>
@@ -747,7 +747,7 @@
       </c>
       <c r="C2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
@@ -755,7 +755,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
         <v>35</v>
       </c>
@@ -767,7 +767,7 @@
       </c>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
         <v>36</v>
       </c>
@@ -782,7 +782,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>37</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
       <c r="E6" s="10"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>19</v>
       </c>
@@ -805,7 +805,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
@@ -813,13 +813,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="20"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
@@ -827,7 +827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>18</v>
       </c>
@@ -835,13 +835,13 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" s="2" t="s">
         <v>0</v>
       </c>
@@ -849,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" s="6" t="s">
         <v>48</v>
       </c>
@@ -857,7 +857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>35</v>
       </c>
@@ -869,7 +869,7 @@
       </c>
       <c r="D17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>36</v>
       </c>
@@ -881,7 +881,7 @@
       </c>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>37</v>
       </c>
@@ -896,7 +896,7 @@
       </c>
       <c r="E19" s="10"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>19</v>
       </c>
@@ -904,7 +904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>20</v>
       </c>
@@ -912,13 +912,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D22" s="20"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>0</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>26</v>
       </c>
@@ -934,13 +934,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>27</v>
       </c>
@@ -948,13 +948,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C27" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C28" s="2" t="s">
         <v>0</v>
       </c>
@@ -962,7 +962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C29" s="6" t="s">
         <v>48</v>
       </c>
@@ -970,7 +970,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
@@ -982,7 +982,7 @@
       </c>
       <c r="D32" s="22"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>36</v>
       </c>
@@ -994,7 +994,7 @@
       </c>
       <c r="D33" s="19"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>37</v>
       </c>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="E34" s="10"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>19</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>20</v>
       </c>
@@ -1025,13 +1025,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>26</v>
       </c>
@@ -1047,14 +1047,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D40" s="5"/>
       <c r="F40" s="13"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>27</v>
       </c>
@@ -1062,13 +1062,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="19"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" s="2" t="s">
         <v>0</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" s="6" t="s">
         <v>48</v>
       </c>
@@ -1084,7 +1084,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="14" t="s">
         <v>35</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="D47" s="22"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>36</v>
       </c>
@@ -1108,7 +1108,7 @@
       </c>
       <c r="D48" s="19"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>37</v>
       </c>
@@ -1123,7 +1123,7 @@
       </c>
       <c r="E49" s="10"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>20</v>
       </c>
@@ -1139,13 +1139,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C52" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D52" s="20"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C53" s="2" t="s">
         <v>0</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>26</v>
       </c>
@@ -1161,19 +1161,19 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>32</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>34</v>
       </c>
@@ -1197,13 +1197,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C60" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="19"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C61" s="2" t="s">
         <v>0</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C62" s="6" t="s">
         <v>48</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="14" t="s">
         <v>35</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="D65" s="22"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
         <v>36</v>
       </c>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="D66" s="19"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
         <v>37</v>
       </c>
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E67" s="10"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C68" s="4" t="s">
         <v>19</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C69" s="4" t="s">
         <v>20</v>
       </c>
@@ -1274,13 +1274,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C70" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D70" s="20"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C71" s="2" t="s">
         <v>0</v>
       </c>
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C72" s="4" t="s">
         <v>26</v>
       </c>
@@ -1296,13 +1296,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C73" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C74" s="4" t="s">
         <v>27</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C75" s="4" t="s">
         <v>25</v>
       </c>
@@ -1318,13 +1318,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C76" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="19"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C77" s="2" t="s">
         <v>0</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C78" s="6" t="s">
         <v>48</v>
       </c>
@@ -1340,7 +1340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="14" t="s">
         <v>35</v>
       </c>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="D81" s="22"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="11" t="s">
         <v>36</v>
       </c>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="D82" s="19"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="11" t="s">
         <v>37</v>
       </c>
@@ -1379,7 +1379,7 @@
       </c>
       <c r="E83" s="10"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C84" s="4" t="s">
         <v>19</v>
       </c>
@@ -1387,7 +1387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" s="4" t="s">
         <v>20</v>
       </c>
@@ -1395,13 +1395,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D86" s="20"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C87" s="2" t="s">
         <v>0</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C88" s="4" t="s">
         <v>26</v>
       </c>
@@ -1417,13 +1417,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C89" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C90" s="4" t="s">
         <v>27</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C91" s="4" t="s">
         <v>46</v>
       </c>
@@ -1440,13 +1440,13 @@
       </c>
       <c r="F91" s="17"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C92" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="19"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C93" s="2" t="s">
         <v>0</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C94" s="6" t="s">
         <v>48</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="14" t="s">
         <v>35</v>
       </c>
@@ -1474,7 +1474,7 @@
       </c>
       <c r="D97" s="22"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>36</v>
       </c>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="D98" s="19"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="11" t="s">
         <v>37</v>
       </c>
@@ -1501,7 +1501,7 @@
       </c>
       <c r="E99" s="10"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C100" s="4" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C101" s="4" t="s">
         <v>20</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C102" s="4" t="s">
         <v>54</v>
       </c>
@@ -1525,13 +1525,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C103" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C104" s="4" t="s">
         <v>56</v>
       </c>
@@ -1539,13 +1539,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C105" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D105" s="19"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C106" s="2" t="s">
         <v>0</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C107" s="4" t="s">
         <v>57</v>
       </c>
@@ -1561,49 +1561,49 @@
         <v>50</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C108" s="4" t="s">
         <v>58</v>
       </c>
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C109" s="4" t="s">
         <v>59</v>
       </c>
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C110" s="4" t="s">
         <v>60</v>
       </c>
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C111" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C112" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C113" s="4" t="s">
         <v>64</v>
       </c>
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C114" s="4" t="s">
         <v>65</v>
       </c>
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C115" s="4" t="s">
         <v>63</v>
       </c>
@@ -1611,13 +1611,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C116" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D116" s="19"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C117" s="2" t="s">
         <v>0</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C118" s="6" t="s">
         <v>48</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="14" t="s">
         <v>35</v>
       </c>
@@ -1645,7 +1645,7 @@
       </c>
       <c r="D121" s="22"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="11" t="s">
         <v>36</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D122" s="19"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="11" t="s">
         <v>37</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E123" s="10"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C124" s="4" t="s">
         <v>19</v>
       </c>
@@ -1680,7 +1680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C125" s="4" t="s">
         <v>20</v>
       </c>
@@ -1688,13 +1688,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C126" s="18" t="s">
         <v>2</v>
       </c>
       <c r="D126" s="20"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C127" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C128" s="4" t="s">
         <v>26</v>
       </c>
@@ -1710,13 +1710,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C129" s="4" t="s">
         <v>21</v>
       </c>
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C130" s="4" t="s">
         <v>27</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C131" s="4" t="s">
         <v>42</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C132" s="4" t="s">
         <v>49</v>
       </c>
@@ -1740,13 +1740,13 @@
         <v>51</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C133" s="18" t="s">
         <v>4</v>
       </c>
       <c r="D133" s="19"/>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C134" s="2" t="s">
         <v>0</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="3:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C135" s="6" t="s">
         <v>48</v>
       </c>
@@ -1764,6 +1764,24 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C116:D116"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C17:D17"/>
     <mergeCell ref="C122:D122"/>
     <mergeCell ref="C126:D126"/>
     <mergeCell ref="C133:D133"/>
@@ -1778,24 +1796,6 @@
     <mergeCell ref="C121:D121"/>
     <mergeCell ref="C98:D98"/>
     <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C116:D116"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C97:D97"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
